--- a/biology/Mycologie/Leccinum_rotundifoliae/Leccinum_rotundifoliae.xlsx
+++ b/biology/Mycologie/Leccinum_rotundifoliae/Leccinum_rotundifoliae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet rude des bouleaux nains
 Leccinum rotundifoliae, le Bolet rude des bouleaux nain, est une espèce de champignons (Fungi) basidiomycètes du genre Leccinum dans la famille des Boletaceae. Il est caractérisé par ses teintes pâles, sa chair faiblement rougissante, son bout du pied parfois taché de bleu et son habitat sous les bouleaux nains.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Leccinum rotundifoliae (Singer) A.H. Sm., Thiers &amp; Watling[1].
-L'espèce a été initialement classée dans le genre Krombholzia sous le basionyme Krombholzia rotundifoliae Singer[1].
-Synonymes
-Leccinum rotundifoliae a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum rotundifoliae (Singer) A.H. Sm., Thiers &amp; Watling.
+L'espèce a été initialement classée dans le genre Krombholzia sous le basionyme Krombholzia rotundifoliae Singer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Leccinum_rotundifoliae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_rotundifoliae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Leccinum rotundifoliae a pour synonymes :
 Krombholzia rotundifoliae Singer (1938), Revue de mycologie, Paris, 3, p. 190 (Basionyme)
 Krombholzia scabra subsp.* rotundifoliae(Singer) Singer (1942), Annales mycologici, edii in notitiam scientiae mycologicae universalis, 40(1-2), p. 36 (nom. inval.)
 Krombholzia scabra f. rotundifoliae(Singer) Vassilkov (1956), Acta Instituti botanici nomine V.L. Komarovii - Academia scientiarum URSS, series II, 10, p. 372
@@ -530,45 +579,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Leccinum_rotundifoliae</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Leccinum_rotundifoliae</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Leccinum rotundifoliae, le Bolet rude des bouleaux nains, sont les suivantes :
-Son chapeau mesure 2 à 8 cm de diamètre, de forme obtus à convexe puis largement convexe, de texture sèche à viscidule avec l'âge, fibrilleux-tomenteux, apparaissant parfois velouté, typiquement plissé et irrégulièrement déprimé ainsi qu'irrégulièrement rimuleux avec l'âge et au sec. Il est de couleur presque blanchâtre à blanc terne au début, lentement chamois pâle à chamois rosâtre, puis chamois cannelle, tan à argilacé terne, noircissant avec l'âge, à marge incurvée, entière et unie, non appendiculée[3],[2].
-L'hyménophore est constitué d'une couche de tubes sadnexée à étroitement adnée, blanchâtre à chamois olive, lentement lignicolore, immuable, mesurant 1 à 1,5 cm de longueur. Les pores sont ronds et petits, 2-3 par mm, de couleur blanchâtre puis brun sombre à noisette, immuables[3],[2].
-Son stipe mesure 4 à 10 cm x 0,5 à 1,2 cm, de forme (sub)égal, plein, sec, entièrement orné de rugosités blanchâtres au début, puis lentement brunes à brun grisâtre, ne noircissant pas, sur fond blanchâtre à tan pâle[3],[2].
-La chair est blanchâtre, immuable ou faiblement rosâtre puis brunissant lentement à la coupe, blanc dans le pied, vite brunâtre vers l'apex et bleu verdâtre vers la base. Son odeur est agréable et sa saveur est douce. Sa sporée est brune[2],[3].
-Réactions chimiques
-La chair devient instantanément bleu foncé au FeSO4[3].
-Caractéristiques microscopiques
-Ses spores sont subobovées-allongées à étroitement fusiformes, lisses, à paroi légèrement épaissie, ochracées à brunâtres-ochracées dans le KOH, souvent dextrinoïdes, 16-20(25) x 5,5-8 µm, Q = 2,2-3,2, Q moyen = 2,8[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -590,12 +600,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et distribution</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit un champignon ectomycorhizien, poussant sous bouleaux et bouleaux nains, en milieux secs à humides, au bord des marécages froids et des marais à sphaignes en montagne. Il est spécifique des habitats boréaux, arctiques, alpins et subalpins[2],[3].
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Leccinum rotundifoliae, le Bolet rude des bouleaux nains, sont les suivantes :
+Son chapeau mesure 2 à 8 cm de diamètre, de forme obtus à convexe puis largement convexe, de texture sèche à viscidule avec l'âge, fibrilleux-tomenteux, apparaissant parfois velouté, typiquement plissé et irrégulièrement déprimé ainsi qu'irrégulièrement rimuleux avec l'âge et au sec. Il est de couleur presque blanchâtre à blanc terne au début, lentement chamois pâle à chamois rosâtre, puis chamois cannelle, tan à argilacé terne, noircissant avec l'âge, à marge incurvée, entière et unie, non appendiculée,.
+L'hyménophore est constitué d'une couche de tubes sadnexée à étroitement adnée, blanchâtre à chamois olive, lentement lignicolore, immuable, mesurant 1 à 1,5 cm de longueur. Les pores sont ronds et petits, 2-3 par mm, de couleur blanchâtre puis brun sombre à noisette, immuables,.
+Son stipe mesure 4 à 10 cm x 0,5 à 1,2 cm, de forme (sub)égal, plein, sec, entièrement orné de rugosités blanchâtres au début, puis lentement brunes à brun grisâtre, ne noircissant pas, sur fond blanchâtre à tan pâle,.
+La chair est blanchâtre, immuable ou faiblement rosâtre puis brunissant lentement à la coupe, blanc dans le pied, vite brunâtre vers l'apex et bleu verdâtre vers la base. Son odeur est agréable et sa saveur est douce. Sa sporée est brune,.
 </t>
         </is>
       </c>
@@ -621,12 +637,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
+          <t>Description du sporophore</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Bolet rude des bouleaux nains est comestible[2]. Comme toutes les espèces de Leccinum au sens large, ce bolet est un comestible médiocre, au pied fibreux souvent rejeté. Il est fréquemment recommandé de le cueillir jeune et de ne garder que le chapeau. Les Bolets rudes sont à l'origine de troubles gastro-intestinaux s'ils sont consommés crus ou mal cuits.
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chair devient instantanément bleu foncé au FeSO4.
 </t>
         </is>
       </c>
@@ -652,12 +674,117 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores sont subobovées-allongées à étroitement fusiformes, lisses, à paroi légèrement épaissie, ochracées à brunâtres-ochracées dans le KOH, souvent dextrinoïdes, 16-20(25) x 5,5-8 µm, Q = 2,2-3,2, Q moyen = 2,8.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Leccinum_rotundifoliae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_rotundifoliae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Habitat et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit un champignon ectomycorhizien, poussant sous bouleaux et bouleaux nains, en milieux secs à humides, au bord des marécages froids et des marais à sphaignes en montagne. Il est spécifique des habitats boréaux, arctiques, alpins et subalpins,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Leccinum_rotundifoliae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_rotundifoliae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bolet rude des bouleaux nains est comestible. Comme toutes les espèces de Leccinum au sens large, ce bolet est un comestible médiocre, au pied fibreux souvent rejeté. Il est fréquemment recommandé de le cueillir jeune et de ne garder que le chapeau. Les Bolets rudes sont à l'origine de troubles gastro-intestinaux s'ils sont consommés crus ou mal cuits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Leccinum_rotundifoliae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_rotundifoliae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les basidiomes pâles doivent être séparés de Leccinum holopus par l'absence de teinte bleu verdâtre sur le chapeau avec l'âge. De plus, il semble y avoir une différence écologique, L. rotundifoliae préférant les habitats secs alors que L. holopus les habitats humides. En zones boréales et subalpines, L. rotundifoliae peut aussi se récolter dans les habitats plus humides[3].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les basidiomes pâles doivent être séparés de Leccinum holopus par l'absence de teinte bleu verdâtre sur le chapeau avec l'âge. De plus, il semble y avoir une différence écologique, L. rotundifoliae préférant les habitats secs alors que L. holopus les habitats humides. En zones boréales et subalpines, L. rotundifoliae peut aussi se récolter dans les habitats plus humides.
 </t>
         </is>
       </c>
